--- a/outputFile/majtest2_majvsdel.xlsx
+++ b/outputFile/majtest2_majvsdel.xlsx
@@ -530,52 +530,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6792452830188678</v>
+        <v>0.6538461538461537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6792452830188678</v>
+        <v>0.6538461538461537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="I2" t="n">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.4285714285714286</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1176470588235294</v>
-      </c>
       <c r="N2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1176470588235294</v>
-      </c>
       <c r="R2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -588,52 +588,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7042253521126761</v>
+        <v>0.8051948051948051</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7042253521126761</v>
+        <v>0.8051948051948051</v>
       </c>
       <c r="G3" t="n">
+        <v>0.3404255319148936</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.1428571428571429</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.392156862745098</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.04878048780487804</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1818181818181818</v>
-      </c>
       <c r="K3" t="n">
+        <v>0.09756097560975609</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.09756097560975609</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -649,49 +649,49 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.8125</v>
       </c>
       <c r="E4" t="n">
         <v>0.6923076923076923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.8125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.64</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="I4" t="n">
         <v>0.3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.3</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O4" t="n">
         <v>0.2222222222222222</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.5217391304347825</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="5">
@@ -704,52 +704,52 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4827586206896551</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6486486486486486</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7428571428571428</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.6086956521739131</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6530612244897959</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5625000000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6206896551724137</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="6">
@@ -762,52 +762,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.5142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.3125</v>
       </c>
       <c r="J6" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.3636363636363636</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2666666666666667</v>
       </c>
       <c r="M6" t="n">
         <v>0.1481481481481481</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.3125</v>
       </c>
       <c r="O6" t="n">
         <v>0.1481481481481481</v>
       </c>
       <c r="P6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
       <c r="R6" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="7">
@@ -823,49 +823,49 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="E7" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4242424242424242</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5581395348837208</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.3870967741935483</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3076923076923077</v>
-      </c>
       <c r="O7" t="n">
-        <v>0.08695652173913042</v>
+        <v>0.16</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08695652173913042</v>
+        <v>0.16</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08695652173913042</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="8">
@@ -878,52 +878,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7272727272727272</v>
+        <v>0.7555555555555556</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7272727272727272</v>
+        <v>0.7555555555555556</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1379310344827586</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2580645161290323</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1379310344827586</v>
-      </c>
       <c r="N8" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.3125</v>
       </c>
       <c r="O8" t="n">
         <v>0.1379310344827586</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="Q8" t="n">
         <v>0.1379310344827586</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="9">
@@ -936,52 +936,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5405405405405405</v>
       </c>
       <c r="I9" t="n">
         <v>0.2068965517241379</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3225806451612904</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.1428571428571429</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.1428571428571429</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.07407407407407407</v>
-      </c>
       <c r="R9" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -994,52 +994,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5365853658536585</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7500000000000001</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5365853658536585</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7500000000000001</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="K10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.07142857142857144</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.07142857142857144</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.07142857142857144</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.07407407407407407</v>
       </c>
       <c r="P10" t="n">
         <v>0.07142857142857144</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857144</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857144</v>
       </c>
     </row>
     <row r="11">
@@ -1052,52 +1052,52 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4210526315789474</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6857142857142858</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4210526315789474</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6857142857142858</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="G11" t="n">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.4210526315789474</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.125</v>
-      </c>
       <c r="J11" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.2352941176470588</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.163265306122449</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0851063829787234</v>
       </c>
       <c r="O11" t="n">
         <v>0.0851063829787234</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0851063829787234</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="12">
@@ -1110,52 +1110,52 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.4186046511627907</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5614035087719298</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4186046511627907</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5614035087719298</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.4102564102564102</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3428571428571428</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.2068965517241379</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.08</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.3125</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08</v>
+        <v>0.2580645161290322</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.2580645161290322</v>
       </c>
     </row>
     <row r="13">
@@ -1168,16 +1168,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.08695652173913042</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08695652173913042</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="G13" t="n">
         <v>0.08695652173913042</v>
@@ -1189,31 +1189,31 @@
         <v>0.08695652173913042</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08695652173913042</v>
       </c>
       <c r="K13" t="n">
         <v>0.08695652173913042</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08695652173913042</v>
       </c>
       <c r="M13" t="n">
         <v>0.08695652173913042</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.08695652173913042</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.08695652173913042</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.08695652173913042</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.08695652173913042</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.08695652173913042</v>
       </c>
     </row>
     <row r="14">
@@ -1226,52 +1226,52 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6206896551724138</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6206896551724138</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5454545454545455</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.125</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="15">
@@ -1284,52 +1284,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2758620689655173</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2758620689655173</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="J15" t="n">
-        <v>0.32</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="16">
@@ -1342,52 +1342,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5977011494252873</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5205479452054794</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.5822784810126582</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.5753424657534247</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.5245901639344261</v>
       </c>
     </row>
     <row r="17">
@@ -1400,28 +1400,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6923076923076924</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6923076923076924</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G17" t="n">
         <v>0.2105263157894737</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I17" t="n">
         <v>0.1111111111111111</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.1111111111111111</v>
@@ -1458,52 +1458,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>0.5925925925925927</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0.5925925925925927</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="M18" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="J18" t="n">
+      <c r="N18" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.1111111111111111</v>
       </c>
       <c r="O18" t="n">
         <v>0.1111111111111111</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.1111111111111111</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="19">
@@ -1519,49 +1519,49 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="E19" t="n">
         <v>0.5000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="H19" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="I19" t="n">
-        <v>0.25</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05555555555555556</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05555555555555556</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05555555555555556</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="P19" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0.1081081081081081</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0.05555555555555556</v>
-      </c>
       <c r="R19" t="n">
-        <v>0.05555555555555556</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="20">
@@ -1574,52 +1574,52 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4842105263157894</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.7244094488188976</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4842105263157894</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.7244094488188976</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2650602409638554</v>
+        <v>0.4044943820224718</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4583333333333334</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="I20" t="n">
+        <v>0.2682926829268292</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3956043956043956</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.05479452054794521</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.02777777777777778</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.2682926829268292</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.05479452054794521</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="21">
@@ -1632,52 +1632,52 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5137614678899083</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6929133858267716</v>
+        <v>0.6880000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5137614678899083</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6929133858267716</v>
+        <v>0.6880000000000001</v>
       </c>
       <c r="G21" t="n">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1839080459770115</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3469387755102041</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.09638554216867469</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.2022471910112359</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.4466019417475728</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.04938271604938272</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.2022471910112359</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
+        <v>0.07317073170731708</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1609195402298851</v>
+      </c>
+      <c r="O21" t="n">
         <v>0.025</v>
       </c>
-      <c r="L21" t="n">
+      <c r="P21" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="R21" t="n">
         <v>0.07228915662650602</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.04878048780487804</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.04878048780487804</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.04938271604938272</v>
       </c>
     </row>
     <row r="22">
@@ -1690,52 +1690,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5538461538461538</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.5542168674698796</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5538461538461538</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.5542168674698796</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4827586206896551</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6506024096385543</v>
+        <v>0.6</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.5263157894736843</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="K22" t="n">
-        <v>0.186046511627907</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4642857142857142</v>
+        <v>0.5753424657534247</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="N22" t="n">
-        <v>0.28</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05128205128205127</v>
+        <v>0.375</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
